--- a/po forecast comparison/B083RW9KDM_sales_po_comparison.xlsx
+++ b/po forecast comparison/B083RW9KDM_sales_po_comparison.xlsx
@@ -7,7 +7,10 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales vs PO" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Weekly Growth" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Volume Insights" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Prediction Info" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -429,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C68"/>
+  <dimension ref="A1:D70"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -450,745 +453,1354 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>Order Week</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>PO_Requested_Qty</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
+        <v>44969</v>
+      </c>
+      <c r="B2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C2" s="2" t="n">
         <v>44963</v>
       </c>
-      <c r="B2" t="n">
-        <v>7</v>
-      </c>
-      <c r="C2" t="n">
+      <c r="D2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>44970</v>
+        <v>44969</v>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
-      </c>
-      <c r="C3" t="n">
+        <v>5</v>
+      </c>
+      <c r="C3" s="2" t="n">
+        <v>44963</v>
+      </c>
+      <c r="D3" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45194</v>
+        <v>44976</v>
       </c>
       <c r="B4" t="n">
         <v>0</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4" s="2" t="n">
+        <v>44970</v>
+      </c>
+      <c r="D4" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45201</v>
+        <v>45200</v>
       </c>
       <c r="B5" t="n">
-        <v>7</v>
-      </c>
-      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" s="2" t="n">
+        <v>45194</v>
+      </c>
+      <c r="D5" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45208</v>
+        <v>45207</v>
       </c>
       <c r="B6" t="n">
-        <v>28</v>
-      </c>
-      <c r="C6" t="n">
+        <v>7</v>
+      </c>
+      <c r="C6" s="2" t="n">
+        <v>45201</v>
+      </c>
+      <c r="D6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45215</v>
+        <v>45214</v>
       </c>
       <c r="B7" t="n">
-        <v>25</v>
-      </c>
-      <c r="C7" t="n">
+        <v>28</v>
+      </c>
+      <c r="C7" s="2" t="n">
+        <v>45208</v>
+      </c>
+      <c r="D7" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45222</v>
+        <v>45221</v>
       </c>
       <c r="B8" t="n">
-        <v>31</v>
-      </c>
-      <c r="C8" t="n">
+        <v>25</v>
+      </c>
+      <c r="C8" s="2" t="n">
+        <v>45215</v>
+      </c>
+      <c r="D8" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45229</v>
+        <v>45228</v>
       </c>
       <c r="B9" t="n">
-        <v>32</v>
-      </c>
-      <c r="C9" t="n">
+        <v>31</v>
+      </c>
+      <c r="C9" s="2" t="n">
+        <v>45222</v>
+      </c>
+      <c r="D9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45236</v>
+        <v>45235</v>
       </c>
       <c r="B10" t="n">
-        <v>51</v>
-      </c>
-      <c r="C10" t="n">
+        <v>32</v>
+      </c>
+      <c r="C10" s="2" t="n">
+        <v>45229</v>
+      </c>
+      <c r="D10" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45243</v>
+        <v>45242</v>
       </c>
       <c r="B11" t="n">
-        <v>77</v>
-      </c>
-      <c r="C11" t="n">
+        <v>51</v>
+      </c>
+      <c r="C11" s="2" t="n">
+        <v>45236</v>
+      </c>
+      <c r="D11" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45250</v>
+        <v>45249</v>
       </c>
       <c r="B12" t="n">
-        <v>63</v>
-      </c>
-      <c r="C12" t="n">
+        <v>77</v>
+      </c>
+      <c r="C12" s="2" t="n">
+        <v>45243</v>
+      </c>
+      <c r="D12" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45257</v>
+        <v>45256</v>
       </c>
       <c r="B13" t="n">
-        <v>78</v>
-      </c>
-      <c r="C13" t="n">
+        <v>63</v>
+      </c>
+      <c r="C13" s="2" t="n">
+        <v>45250</v>
+      </c>
+      <c r="D13" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45264</v>
+        <v>45263</v>
       </c>
       <c r="B14" t="n">
-        <v>66</v>
-      </c>
-      <c r="C14" t="n">
+        <v>78</v>
+      </c>
+      <c r="C14" s="2" t="n">
+        <v>45257</v>
+      </c>
+      <c r="D14" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45271</v>
+        <v>45270</v>
       </c>
       <c r="B15" t="n">
-        <v>76</v>
-      </c>
-      <c r="C15" t="n">
+        <v>66</v>
+      </c>
+      <c r="C15" s="2" t="n">
+        <v>45264</v>
+      </c>
+      <c r="D15" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45285</v>
+        <v>45277</v>
       </c>
       <c r="B16" t="n">
         <v>76</v>
       </c>
-      <c r="C16" t="n">
+      <c r="C16" s="2" t="n">
+        <v>45271</v>
+      </c>
+      <c r="D16" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45292</v>
+        <v>45291</v>
       </c>
       <c r="B17" t="n">
-        <v>44</v>
-      </c>
-      <c r="C17" t="n">
-        <v>270</v>
+        <v>76</v>
+      </c>
+      <c r="C17" s="2" t="n">
+        <v>45285</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45299</v>
+        <v>45298</v>
       </c>
       <c r="B18" t="n">
-        <v>48</v>
-      </c>
-      <c r="C18" t="n">
-        <v>18</v>
+        <v>44</v>
+      </c>
+      <c r="C18" s="2" t="n">
+        <v>45292</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45306</v>
+        <v>45305</v>
       </c>
       <c r="B19" t="n">
-        <v>69</v>
-      </c>
-      <c r="C19" t="n">
-        <v>162</v>
+        <v>48</v>
+      </c>
+      <c r="C19" s="2" t="n">
+        <v>45299</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45313</v>
+        <v>45312</v>
       </c>
       <c r="B20" t="n">
-        <v>65</v>
-      </c>
-      <c r="C20" t="n">
+        <v>69</v>
+      </c>
+      <c r="C20" s="2" t="n">
+        <v>45306</v>
+      </c>
+      <c r="D20" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45320</v>
+        <v>45319</v>
       </c>
       <c r="B21" t="n">
-        <v>54</v>
-      </c>
-      <c r="C21" t="n">
-        <v>36</v>
+        <v>65</v>
+      </c>
+      <c r="C21" s="2" t="n">
+        <v>45313</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45327</v>
+        <v>45326</v>
       </c>
       <c r="B22" t="n">
-        <v>55</v>
-      </c>
-      <c r="C22" t="n">
-        <v>342</v>
+        <v>54</v>
+      </c>
+      <c r="C22" s="2" t="n">
+        <v>45320</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45334</v>
+        <v>45333</v>
       </c>
       <c r="B23" t="n">
-        <v>49</v>
-      </c>
-      <c r="C23" t="n">
+        <v>55</v>
+      </c>
+      <c r="C23" s="2" t="n">
+        <v>45327</v>
+      </c>
+      <c r="D23" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45341</v>
+        <v>45340</v>
       </c>
       <c r="B24" t="n">
-        <v>50</v>
-      </c>
-      <c r="C24" t="n">
-        <v>180</v>
+        <v>49</v>
+      </c>
+      <c r="C24" s="2" t="n">
+        <v>45334</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45348</v>
+        <v>45347</v>
       </c>
       <c r="B25" t="n">
-        <v>55</v>
-      </c>
-      <c r="C25" t="n">
+        <v>50</v>
+      </c>
+      <c r="C25" s="2" t="n">
+        <v>45341</v>
+      </c>
+      <c r="D25" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45355</v>
+        <v>45354</v>
       </c>
       <c r="B26" t="n">
-        <v>50</v>
-      </c>
-      <c r="C26" t="n">
-        <v>228</v>
+        <v>55</v>
+      </c>
+      <c r="C26" s="2" t="n">
+        <v>45348</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>45362</v>
+        <v>45361</v>
       </c>
       <c r="B27" t="n">
-        <v>64</v>
-      </c>
-      <c r="C27" t="n">
+        <v>50</v>
+      </c>
+      <c r="C27" s="2" t="n">
+        <v>45355</v>
+      </c>
+      <c r="D27" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>45369</v>
+        <v>45368</v>
       </c>
       <c r="B28" t="n">
-        <v>37</v>
-      </c>
-      <c r="C28" t="n">
-        <v>126</v>
+        <v>64</v>
+      </c>
+      <c r="C28" s="2" t="n">
+        <v>45362</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>45376</v>
+        <v>45375</v>
       </c>
       <c r="B29" t="n">
         <v>37</v>
       </c>
-      <c r="C29" t="n">
-        <v>510</v>
+      <c r="C29" s="2" t="n">
+        <v>45369</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>45383</v>
+        <v>45382</v>
       </c>
       <c r="B30" t="n">
-        <v>48</v>
-      </c>
-      <c r="C30" t="n">
+        <v>37</v>
+      </c>
+      <c r="C30" s="2" t="n">
+        <v>45376</v>
+      </c>
+      <c r="D30" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>45390</v>
+        <v>45389</v>
       </c>
       <c r="B31" t="n">
-        <v>31</v>
-      </c>
-      <c r="C31" t="n">
+        <v>48</v>
+      </c>
+      <c r="C31" s="2" t="n">
+        <v>45383</v>
+      </c>
+      <c r="D31" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>45397</v>
+        <v>45396</v>
       </c>
       <c r="B32" t="n">
-        <v>45</v>
-      </c>
-      <c r="C32" t="n">
+        <v>31</v>
+      </c>
+      <c r="C32" s="2" t="n">
+        <v>45390</v>
+      </c>
+      <c r="D32" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>45404</v>
+        <v>45403</v>
       </c>
       <c r="B33" t="n">
-        <v>47</v>
-      </c>
-      <c r="C33" t="n">
+        <v>45</v>
+      </c>
+      <c r="C33" s="2" t="n">
+        <v>45397</v>
+      </c>
+      <c r="D33" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>45411</v>
+        <v>45410</v>
       </c>
       <c r="B34" t="n">
-        <v>73</v>
-      </c>
-      <c r="C34" t="n">
+        <v>47</v>
+      </c>
+      <c r="C34" s="2" t="n">
+        <v>45404</v>
+      </c>
+      <c r="D34" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>45418</v>
+        <v>45417</v>
       </c>
       <c r="B35" t="n">
         <v>41</v>
       </c>
-      <c r="C35" t="n">
+      <c r="C35" s="2" t="n">
+        <v>45411</v>
+      </c>
+      <c r="D35" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>45425</v>
+        <v>45417</v>
       </c>
       <c r="B36" t="n">
-        <v>26</v>
-      </c>
-      <c r="C36" t="n">
-        <v>12</v>
+        <v>32</v>
+      </c>
+      <c r="C36" s="2" t="n">
+        <v>45411</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>45432</v>
+        <v>45424</v>
       </c>
       <c r="B37" t="n">
-        <v>27</v>
-      </c>
-      <c r="C37" t="n">
+        <v>41</v>
+      </c>
+      <c r="C37" s="2" t="n">
+        <v>45418</v>
+      </c>
+      <c r="D37" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>45439</v>
+        <v>45431</v>
       </c>
       <c r="B38" t="n">
-        <v>32</v>
-      </c>
-      <c r="C38" t="n">
-        <v>12</v>
+        <v>26</v>
+      </c>
+      <c r="C38" s="2" t="n">
+        <v>45425</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>45446</v>
+        <v>45438</v>
       </c>
       <c r="B39" t="n">
-        <v>30</v>
-      </c>
-      <c r="C39" t="n">
+        <v>27</v>
+      </c>
+      <c r="C39" s="2" t="n">
+        <v>45432</v>
+      </c>
+      <c r="D39" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>45453</v>
+        <v>45445</v>
       </c>
       <c r="B40" t="n">
-        <v>23</v>
-      </c>
-      <c r="C40" t="n">
+        <v>32</v>
+      </c>
+      <c r="C40" s="2" t="n">
+        <v>45439</v>
+      </c>
+      <c r="D40" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>45460</v>
+        <v>45452</v>
       </c>
       <c r="B41" t="n">
-        <v>29</v>
-      </c>
-      <c r="C41" t="n">
-        <v>60</v>
+        <v>30</v>
+      </c>
+      <c r="C41" s="2" t="n">
+        <v>45446</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>45467</v>
+        <v>45459</v>
       </c>
       <c r="B42" t="n">
-        <v>29</v>
-      </c>
-      <c r="C42" t="n">
+        <v>23</v>
+      </c>
+      <c r="C42" s="2" t="n">
+        <v>45453</v>
+      </c>
+      <c r="D42" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>45474</v>
+        <v>45466</v>
       </c>
       <c r="B43" t="n">
-        <v>38</v>
-      </c>
-      <c r="C43" t="n">
+        <v>29</v>
+      </c>
+      <c r="C43" s="2" t="n">
+        <v>45460</v>
+      </c>
+      <c r="D43" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>45481</v>
+        <v>45473</v>
       </c>
       <c r="B44" t="n">
-        <v>78</v>
-      </c>
-      <c r="C44" t="n">
-        <v>24</v>
+        <v>29</v>
+      </c>
+      <c r="C44" s="2" t="n">
+        <v>45467</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>45488</v>
+        <v>45480</v>
       </c>
       <c r="B45" t="n">
-        <v>37</v>
-      </c>
-      <c r="C45" t="n">
-        <v>24</v>
+        <v>38</v>
+      </c>
+      <c r="C45" s="2" t="n">
+        <v>45474</v>
+      </c>
+      <c r="D45" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>45495</v>
+        <v>45487</v>
       </c>
       <c r="B46" t="n">
-        <v>15</v>
-      </c>
-      <c r="C46" t="n">
-        <v>96</v>
+        <v>78</v>
+      </c>
+      <c r="C46" s="2" t="n">
+        <v>45481</v>
+      </c>
+      <c r="D46" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>45502</v>
+        <v>45494</v>
       </c>
       <c r="B47" t="n">
-        <v>16</v>
-      </c>
-      <c r="C47" t="n">
-        <v>564</v>
+        <v>37</v>
+      </c>
+      <c r="C47" s="2" t="n">
+        <v>45488</v>
+      </c>
+      <c r="D47" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>45509</v>
+        <v>45501</v>
       </c>
       <c r="B48" t="n">
-        <v>18</v>
-      </c>
-      <c r="C48" t="n">
+        <v>15</v>
+      </c>
+      <c r="C48" s="2" t="n">
+        <v>45495</v>
+      </c>
+      <c r="D48" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>45516</v>
+        <v>45508</v>
       </c>
       <c r="B49" t="n">
-        <v>19</v>
-      </c>
-      <c r="C49" t="n">
+        <v>16</v>
+      </c>
+      <c r="C49" s="2" t="n">
+        <v>45502</v>
+      </c>
+      <c r="D49" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>45523</v>
+        <v>45515</v>
       </c>
       <c r="B50" t="n">
-        <v>239</v>
-      </c>
-      <c r="C50" t="n">
+        <v>18</v>
+      </c>
+      <c r="C50" s="2" t="n">
+        <v>45509</v>
+      </c>
+      <c r="D50" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>45530</v>
+        <v>45522</v>
       </c>
       <c r="B51" t="n">
-        <v>29</v>
-      </c>
-      <c r="C51" t="n">
-        <v>60</v>
+        <v>19</v>
+      </c>
+      <c r="C51" s="2" t="n">
+        <v>45516</v>
+      </c>
+      <c r="D51" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>45537</v>
+        <v>45529</v>
       </c>
       <c r="B52" t="n">
-        <v>11</v>
-      </c>
-      <c r="C52" t="n">
-        <v>168</v>
+        <v>239</v>
+      </c>
+      <c r="C52" s="2" t="n">
+        <v>45523</v>
+      </c>
+      <c r="D52" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>45544</v>
+        <v>45536</v>
       </c>
       <c r="B53" t="n">
-        <v>15</v>
-      </c>
-      <c r="C53" t="n">
-        <v>12</v>
+        <v>29</v>
+      </c>
+      <c r="C53" s="2" t="n">
+        <v>45530</v>
+      </c>
+      <c r="D53" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>45551</v>
+        <v>45543</v>
       </c>
       <c r="B54" t="n">
-        <v>8</v>
-      </c>
-      <c r="C54" t="n">
-        <v>108</v>
+        <v>11</v>
+      </c>
+      <c r="C54" s="2" t="n">
+        <v>45537</v>
+      </c>
+      <c r="D54" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>45558</v>
+        <v>45550</v>
       </c>
       <c r="B55" t="n">
-        <v>20</v>
-      </c>
-      <c r="C55" t="n">
+        <v>15</v>
+      </c>
+      <c r="C55" s="2" t="n">
+        <v>45544</v>
+      </c>
+      <c r="D55" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>45565</v>
+        <v>45557</v>
       </c>
       <c r="B56" t="n">
-        <v>26</v>
-      </c>
-      <c r="C56" t="n">
+        <v>8</v>
+      </c>
+      <c r="C56" s="2" t="n">
+        <v>45551</v>
+      </c>
+      <c r="D56" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>45572</v>
+        <v>45564</v>
       </c>
       <c r="B57" t="n">
-        <v>9</v>
-      </c>
-      <c r="C57" t="n">
-        <v>108</v>
+        <v>20</v>
+      </c>
+      <c r="C57" s="2" t="n">
+        <v>45558</v>
+      </c>
+      <c r="D57" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>45579</v>
+        <v>45571</v>
       </c>
       <c r="B58" t="n">
-        <v>11</v>
-      </c>
-      <c r="C58" t="n">
-        <v>372</v>
+        <v>26</v>
+      </c>
+      <c r="C58" s="2" t="n">
+        <v>45565</v>
+      </c>
+      <c r="D58" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>45586</v>
+        <v>45578</v>
       </c>
       <c r="B59" t="n">
-        <v>11</v>
-      </c>
-      <c r="C59" t="n">
+        <v>9</v>
+      </c>
+      <c r="C59" s="2" t="n">
+        <v>45572</v>
+      </c>
+      <c r="D59" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>45593</v>
+        <v>45585</v>
       </c>
       <c r="B60" t="n">
-        <v>13</v>
-      </c>
-      <c r="C60" t="n">
-        <v>84</v>
+        <v>11</v>
+      </c>
+      <c r="C60" s="2" t="n">
+        <v>45579</v>
+      </c>
+      <c r="D60" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
-        <v>45600</v>
+        <v>45592</v>
       </c>
       <c r="B61" t="n">
-        <v>14</v>
-      </c>
-      <c r="C61" t="n">
+        <v>11</v>
+      </c>
+      <c r="C61" s="2" t="n">
+        <v>45586</v>
+      </c>
+      <c r="D61" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
-        <v>45607</v>
+        <v>45599</v>
       </c>
       <c r="B62" t="n">
-        <v>33</v>
-      </c>
-      <c r="C62" t="n">
+        <v>13</v>
+      </c>
+      <c r="C62" s="2" t="n">
+        <v>45593</v>
+      </c>
+      <c r="D62" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
-        <v>45614</v>
+        <v>45606</v>
       </c>
       <c r="B63" t="n">
-        <v>42</v>
-      </c>
-      <c r="C63" t="n">
+        <v>14</v>
+      </c>
+      <c r="C63" s="2" t="n">
+        <v>45600</v>
+      </c>
+      <c r="D63" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
-        <v>45621</v>
+        <v>45613</v>
       </c>
       <c r="B64" t="n">
-        <v>46</v>
-      </c>
-      <c r="C64" t="n">
+        <v>33</v>
+      </c>
+      <c r="C64" s="2" t="n">
+        <v>45607</v>
+      </c>
+      <c r="D64" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
-        <v>45628</v>
+        <v>45620</v>
       </c>
       <c r="B65" t="n">
-        <v>30</v>
-      </c>
-      <c r="C65" t="n">
+        <v>42</v>
+      </c>
+      <c r="C65" s="2" t="n">
+        <v>45614</v>
+      </c>
+      <c r="D65" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
-        <v>45635</v>
+        <v>45627</v>
       </c>
       <c r="B66" t="n">
-        <v>35</v>
-      </c>
-      <c r="C66" t="n">
+        <v>46</v>
+      </c>
+      <c r="C66" s="2" t="n">
+        <v>45621</v>
+      </c>
+      <c r="D66" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
-        <v>45642</v>
+        <v>45634</v>
       </c>
       <c r="B67" t="n">
-        <v>19</v>
-      </c>
-      <c r="C67" t="n">
+        <v>30</v>
+      </c>
+      <c r="C67" s="2" t="n">
+        <v>45628</v>
+      </c>
+      <c r="D67" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
+        <v>45641</v>
+      </c>
+      <c r="B68" t="n">
+        <v>35</v>
+      </c>
+      <c r="C68" s="2" t="n">
+        <v>45635</v>
+      </c>
+      <c r="D68" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>45648</v>
+      </c>
+      <c r="B69" t="n">
+        <v>19</v>
+      </c>
+      <c r="C69" s="2" t="n">
+        <v>45642</v>
+      </c>
+      <c r="D69" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>45655</v>
+      </c>
+      <c r="B70" t="n">
+        <v>29</v>
+      </c>
+      <c r="C70" s="2" t="n">
         <v>45649</v>
       </c>
-      <c r="B68" t="n">
-        <v>29</v>
-      </c>
-      <c r="C68" t="n">
-        <v>0</v>
+      <c r="D70" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ds</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>PO_Requested_Qty</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Growth%</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>45292</v>
+      </c>
+      <c r="B2" t="n">
+        <v>270</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>45299</v>
+      </c>
+      <c r="B3" t="n">
+        <v>18</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-93.33333333333333</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>45306</v>
+      </c>
+      <c r="B4" t="n">
+        <v>162</v>
+      </c>
+      <c r="C4" t="n">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>45320</v>
+      </c>
+      <c r="B5" t="n">
+        <v>36</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-77.77777777777779</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45327</v>
+      </c>
+      <c r="B6" t="n">
+        <v>342</v>
+      </c>
+      <c r="C6" t="n">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45341</v>
+      </c>
+      <c r="B7" t="n">
+        <v>180</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-47.36842105263158</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45355</v>
+      </c>
+      <c r="B8" t="n">
+        <v>228</v>
+      </c>
+      <c r="C8" t="n">
+        <v>26.66666666666666</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45369</v>
+      </c>
+      <c r="B9" t="n">
+        <v>126</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-44.73684210526315</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45376</v>
+      </c>
+      <c r="B10" t="n">
+        <v>510</v>
+      </c>
+      <c r="C10" t="n">
+        <v>304.7619047619048</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45425</v>
+      </c>
+      <c r="B11" t="n">
+        <v>12</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-97.64705882352941</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45439</v>
+      </c>
+      <c r="B12" t="n">
+        <v>12</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45460</v>
+      </c>
+      <c r="B13" t="n">
+        <v>60</v>
+      </c>
+      <c r="C13" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45481</v>
+      </c>
+      <c r="B14" t="n">
+        <v>24</v>
+      </c>
+      <c r="C14" t="n">
+        <v>-60</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45488</v>
+      </c>
+      <c r="B15" t="n">
+        <v>24</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45495</v>
+      </c>
+      <c r="B16" t="n">
+        <v>96</v>
+      </c>
+      <c r="C16" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45502</v>
+      </c>
+      <c r="B17" t="n">
+        <v>564</v>
+      </c>
+      <c r="C17" t="n">
+        <v>487.5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45530</v>
+      </c>
+      <c r="B18" t="n">
+        <v>60</v>
+      </c>
+      <c r="C18" t="n">
+        <v>-89.36170212765957</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45537</v>
+      </c>
+      <c r="B19" t="n">
+        <v>168</v>
+      </c>
+      <c r="C19" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45544</v>
+      </c>
+      <c r="B20" t="n">
+        <v>12</v>
+      </c>
+      <c r="C20" t="n">
+        <v>-92.85714285714286</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45551</v>
+      </c>
+      <c r="B21" t="n">
+        <v>108</v>
+      </c>
+      <c r="C21" t="n">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45572</v>
+      </c>
+      <c r="B22" t="n">
+        <v>108</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>45579</v>
+      </c>
+      <c r="B23" t="n">
+        <v>372</v>
+      </c>
+      <c r="C23" t="n">
+        <v>244.4444444444445</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>45593</v>
+      </c>
+      <c r="B24" t="n">
+        <v>84</v>
+      </c>
+      <c r="C24" t="n">
+        <v>-77.41935483870968</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Total_PO_Quantity</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Average_PO_Quantity</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Max_PO_Quantity</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Min_PO_Quantity</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>3576</v>
+      </c>
+      <c r="B2" t="n">
+        <v>155.4782608695652</v>
+      </c>
+      <c r="C2" t="n">
+        <v>564</v>
+      </c>
+      <c r="D2" t="n">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Predicted_Next_Week_PO_Quantity</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>142.5296442687747</v>
       </c>
     </row>
   </sheetData>

--- a/po forecast comparison/B083RW9KDM_sales_po_comparison.xlsx
+++ b/po forecast comparison/B083RW9KDM_sales_po_comparison.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D70"/>
+  <dimension ref="A1:C68"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,978 +453,744 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Order Week</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
           <t>PO_Requested_Qty</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>44969</v>
+        <v>44969.99999999999</v>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
-      </c>
-      <c r="C2" s="2" t="n">
-        <v>44963</v>
-      </c>
-      <c r="D2" t="n">
+        <v>7</v>
+      </c>
+      <c r="C2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>44969</v>
+        <v>44976.99999999999</v>
       </c>
       <c r="B3" t="n">
-        <v>5</v>
-      </c>
-      <c r="C3" s="2" t="n">
-        <v>44963</v>
-      </c>
-      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>44976</v>
+        <v>45200.99999999999</v>
       </c>
       <c r="B4" t="n">
         <v>0</v>
       </c>
-      <c r="C4" s="2" t="n">
-        <v>44970</v>
-      </c>
-      <c r="D4" t="n">
+      <c r="C4" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45200</v>
+        <v>45207.99999999999</v>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
-      </c>
-      <c r="C5" s="2" t="n">
-        <v>45194</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0</v>
+        <v>7</v>
+      </c>
+      <c r="C5" t="n">
+        <v>36</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45207</v>
+        <v>45214.99999999999</v>
       </c>
       <c r="B6" t="n">
-        <v>7</v>
-      </c>
-      <c r="C6" s="2" t="n">
-        <v>45201</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0</v>
+        <v>28</v>
+      </c>
+      <c r="C6" t="n">
+        <v>54</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45214</v>
+        <v>45221.99999999999</v>
       </c>
       <c r="B7" t="n">
-        <v>28</v>
-      </c>
-      <c r="C7" s="2" t="n">
-        <v>45208</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0</v>
+        <v>25</v>
+      </c>
+      <c r="C7" t="n">
+        <v>54</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45221</v>
+        <v>45228.99999999999</v>
       </c>
       <c r="B8" t="n">
-        <v>25</v>
-      </c>
-      <c r="C8" s="2" t="n">
-        <v>45215</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0</v>
+        <v>31</v>
+      </c>
+      <c r="C8" t="n">
+        <v>186</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45228</v>
+        <v>45235.99999999999</v>
       </c>
       <c r="B9" t="n">
-        <v>31</v>
-      </c>
-      <c r="C9" s="2" t="n">
-        <v>45222</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0</v>
+        <v>32</v>
+      </c>
+      <c r="C9" t="n">
+        <v>96</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45235</v>
+        <v>45242.99999999999</v>
       </c>
       <c r="B10" t="n">
-        <v>32</v>
-      </c>
-      <c r="C10" s="2" t="n">
-        <v>45229</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0</v>
+        <v>51</v>
+      </c>
+      <c r="C10" t="n">
+        <v>30</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45242</v>
+        <v>45249.99999999999</v>
       </c>
       <c r="B11" t="n">
-        <v>51</v>
-      </c>
-      <c r="C11" s="2" t="n">
-        <v>45236</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0</v>
+        <v>77</v>
+      </c>
+      <c r="C11" t="n">
+        <v>210</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45249</v>
+        <v>45256.99999999999</v>
       </c>
       <c r="B12" t="n">
-        <v>77</v>
-      </c>
-      <c r="C12" s="2" t="n">
-        <v>45243</v>
-      </c>
-      <c r="D12" t="n">
-        <v>0</v>
+        <v>63</v>
+      </c>
+      <c r="C12" t="n">
+        <v>42</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45256</v>
+        <v>45263.99999999999</v>
       </c>
       <c r="B13" t="n">
-        <v>63</v>
-      </c>
-      <c r="C13" s="2" t="n">
-        <v>45250</v>
-      </c>
-      <c r="D13" t="n">
-        <v>0</v>
+        <v>78</v>
+      </c>
+      <c r="C13" t="n">
+        <v>198</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45263</v>
+        <v>45270.99999999999</v>
       </c>
       <c r="B14" t="n">
-        <v>78</v>
-      </c>
-      <c r="C14" s="2" t="n">
-        <v>45257</v>
-      </c>
-      <c r="D14" t="n">
-        <v>0</v>
+        <v>66</v>
+      </c>
+      <c r="C14" t="n">
+        <v>54</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45270</v>
+        <v>45277.99999999999</v>
       </c>
       <c r="B15" t="n">
-        <v>66</v>
-      </c>
-      <c r="C15" s="2" t="n">
-        <v>45264</v>
-      </c>
-      <c r="D15" t="n">
-        <v>0</v>
+        <v>76</v>
+      </c>
+      <c r="C15" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45277</v>
+        <v>45291.99999999999</v>
       </c>
       <c r="B16" t="n">
         <v>76</v>
       </c>
-      <c r="C16" s="2" t="n">
-        <v>45271</v>
-      </c>
-      <c r="D16" t="n">
+      <c r="C16" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45291</v>
+        <v>45298.99999999999</v>
       </c>
       <c r="B17" t="n">
-        <v>76</v>
-      </c>
-      <c r="C17" s="2" t="n">
-        <v>45285</v>
-      </c>
-      <c r="D17" t="n">
-        <v>0</v>
+        <v>44</v>
+      </c>
+      <c r="C17" t="n">
+        <v>270</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45298</v>
+        <v>45305.99999999999</v>
       </c>
       <c r="B18" t="n">
-        <v>44</v>
-      </c>
-      <c r="C18" s="2" t="n">
-        <v>45292</v>
-      </c>
-      <c r="D18" t="n">
-        <v>0</v>
+        <v>48</v>
+      </c>
+      <c r="C18" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45305</v>
+        <v>45312.99999999999</v>
       </c>
       <c r="B19" t="n">
-        <v>48</v>
-      </c>
-      <c r="C19" s="2" t="n">
-        <v>45299</v>
-      </c>
-      <c r="D19" t="n">
-        <v>0</v>
+        <v>69</v>
+      </c>
+      <c r="C19" t="n">
+        <v>162</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45312</v>
+        <v>45319.99999999999</v>
       </c>
       <c r="B20" t="n">
-        <v>69</v>
-      </c>
-      <c r="C20" s="2" t="n">
-        <v>45306</v>
-      </c>
-      <c r="D20" t="n">
+        <v>65</v>
+      </c>
+      <c r="C20" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45319</v>
+        <v>45326.99999999999</v>
       </c>
       <c r="B21" t="n">
-        <v>65</v>
-      </c>
-      <c r="C21" s="2" t="n">
-        <v>45313</v>
-      </c>
-      <c r="D21" t="n">
-        <v>0</v>
+        <v>54</v>
+      </c>
+      <c r="C21" t="n">
+        <v>36</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45326</v>
+        <v>45333.99999999999</v>
       </c>
       <c r="B22" t="n">
-        <v>54</v>
-      </c>
-      <c r="C22" s="2" t="n">
-        <v>45320</v>
-      </c>
-      <c r="D22" t="n">
-        <v>0</v>
+        <v>55</v>
+      </c>
+      <c r="C22" t="n">
+        <v>342</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45333</v>
+        <v>45340.99999999999</v>
       </c>
       <c r="B23" t="n">
-        <v>55</v>
-      </c>
-      <c r="C23" s="2" t="n">
-        <v>45327</v>
-      </c>
-      <c r="D23" t="n">
+        <v>49</v>
+      </c>
+      <c r="C23" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45340</v>
+        <v>45347.99999999999</v>
       </c>
       <c r="B24" t="n">
-        <v>49</v>
-      </c>
-      <c r="C24" s="2" t="n">
-        <v>45334</v>
-      </c>
-      <c r="D24" t="n">
-        <v>0</v>
+        <v>50</v>
+      </c>
+      <c r="C24" t="n">
+        <v>180</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45347</v>
+        <v>45354.99999999999</v>
       </c>
       <c r="B25" t="n">
-        <v>50</v>
-      </c>
-      <c r="C25" s="2" t="n">
-        <v>45341</v>
-      </c>
-      <c r="D25" t="n">
+        <v>55</v>
+      </c>
+      <c r="C25" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45354</v>
+        <v>45361.99999999999</v>
       </c>
       <c r="B26" t="n">
-        <v>55</v>
-      </c>
-      <c r="C26" s="2" t="n">
-        <v>45348</v>
-      </c>
-      <c r="D26" t="n">
-        <v>0</v>
+        <v>50</v>
+      </c>
+      <c r="C26" t="n">
+        <v>228</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>45361</v>
+        <v>45368.99999999999</v>
       </c>
       <c r="B27" t="n">
-        <v>50</v>
-      </c>
-      <c r="C27" s="2" t="n">
-        <v>45355</v>
-      </c>
-      <c r="D27" t="n">
+        <v>64</v>
+      </c>
+      <c r="C27" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>45368</v>
+        <v>45375.99999999999</v>
       </c>
       <c r="B28" t="n">
-        <v>64</v>
-      </c>
-      <c r="C28" s="2" t="n">
-        <v>45362</v>
-      </c>
-      <c r="D28" t="n">
-        <v>0</v>
+        <v>37</v>
+      </c>
+      <c r="C28" t="n">
+        <v>126</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>45375</v>
+        <v>45382.99999999999</v>
       </c>
       <c r="B29" t="n">
         <v>37</v>
       </c>
-      <c r="C29" s="2" t="n">
-        <v>45369</v>
-      </c>
-      <c r="D29" t="n">
-        <v>0</v>
+      <c r="C29" t="n">
+        <v>510</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>45382</v>
+        <v>45389.99999999999</v>
       </c>
       <c r="B30" t="n">
-        <v>37</v>
-      </c>
-      <c r="C30" s="2" t="n">
-        <v>45376</v>
-      </c>
-      <c r="D30" t="n">
+        <v>48</v>
+      </c>
+      <c r="C30" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>45389</v>
+        <v>45396.99999999999</v>
       </c>
       <c r="B31" t="n">
-        <v>48</v>
-      </c>
-      <c r="C31" s="2" t="n">
-        <v>45383</v>
-      </c>
-      <c r="D31" t="n">
+        <v>31</v>
+      </c>
+      <c r="C31" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>45396</v>
+        <v>45403.99999999999</v>
       </c>
       <c r="B32" t="n">
-        <v>31</v>
-      </c>
-      <c r="C32" s="2" t="n">
-        <v>45390</v>
-      </c>
-      <c r="D32" t="n">
+        <v>45</v>
+      </c>
+      <c r="C32" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>45403</v>
+        <v>45410.99999999999</v>
       </c>
       <c r="B33" t="n">
-        <v>45</v>
-      </c>
-      <c r="C33" s="2" t="n">
-        <v>45397</v>
-      </c>
-      <c r="D33" t="n">
+        <v>47</v>
+      </c>
+      <c r="C33" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>45410</v>
+        <v>45417.99999999999</v>
       </c>
       <c r="B34" t="n">
-        <v>47</v>
-      </c>
-      <c r="C34" s="2" t="n">
-        <v>45404</v>
-      </c>
-      <c r="D34" t="n">
+        <v>73</v>
+      </c>
+      <c r="C34" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>45417</v>
+        <v>45424.99999999999</v>
       </c>
       <c r="B35" t="n">
         <v>41</v>
       </c>
-      <c r="C35" s="2" t="n">
-        <v>45411</v>
-      </c>
-      <c r="D35" t="n">
+      <c r="C35" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>45417</v>
+        <v>45431.99999999999</v>
       </c>
       <c r="B36" t="n">
-        <v>32</v>
-      </c>
-      <c r="C36" s="2" t="n">
-        <v>45411</v>
-      </c>
-      <c r="D36" t="n">
-        <v>0</v>
+        <v>26</v>
+      </c>
+      <c r="C36" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>45424</v>
+        <v>45438.99999999999</v>
       </c>
       <c r="B37" t="n">
-        <v>41</v>
-      </c>
-      <c r="C37" s="2" t="n">
-        <v>45418</v>
-      </c>
-      <c r="D37" t="n">
+        <v>27</v>
+      </c>
+      <c r="C37" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>45431</v>
+        <v>45445.99999999999</v>
       </c>
       <c r="B38" t="n">
-        <v>26</v>
-      </c>
-      <c r="C38" s="2" t="n">
-        <v>45425</v>
-      </c>
-      <c r="D38" t="n">
-        <v>0</v>
+        <v>32</v>
+      </c>
+      <c r="C38" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>45438</v>
+        <v>45452.99999999999</v>
       </c>
       <c r="B39" t="n">
-        <v>27</v>
-      </c>
-      <c r="C39" s="2" t="n">
-        <v>45432</v>
-      </c>
-      <c r="D39" t="n">
+        <v>30</v>
+      </c>
+      <c r="C39" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>45445</v>
+        <v>45459.99999999999</v>
       </c>
       <c r="B40" t="n">
-        <v>32</v>
-      </c>
-      <c r="C40" s="2" t="n">
-        <v>45439</v>
-      </c>
-      <c r="D40" t="n">
+        <v>23</v>
+      </c>
+      <c r="C40" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>45452</v>
+        <v>45466.99999999999</v>
       </c>
       <c r="B41" t="n">
-        <v>30</v>
-      </c>
-      <c r="C41" s="2" t="n">
-        <v>45446</v>
-      </c>
-      <c r="D41" t="n">
-        <v>0</v>
+        <v>29</v>
+      </c>
+      <c r="C41" t="n">
+        <v>60</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>45459</v>
+        <v>45473.99999999999</v>
       </c>
       <c r="B42" t="n">
-        <v>23</v>
-      </c>
-      <c r="C42" s="2" t="n">
-        <v>45453</v>
-      </c>
-      <c r="D42" t="n">
+        <v>29</v>
+      </c>
+      <c r="C42" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>45466</v>
+        <v>45480.99999999999</v>
       </c>
       <c r="B43" t="n">
-        <v>29</v>
-      </c>
-      <c r="C43" s="2" t="n">
-        <v>45460</v>
-      </c>
-      <c r="D43" t="n">
+        <v>38</v>
+      </c>
+      <c r="C43" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>45473</v>
+        <v>45487.99999999999</v>
       </c>
       <c r="B44" t="n">
-        <v>29</v>
-      </c>
-      <c r="C44" s="2" t="n">
-        <v>45467</v>
-      </c>
-      <c r="D44" t="n">
-        <v>0</v>
+        <v>78</v>
+      </c>
+      <c r="C44" t="n">
+        <v>24</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>45480</v>
+        <v>45494.99999999999</v>
       </c>
       <c r="B45" t="n">
-        <v>38</v>
-      </c>
-      <c r="C45" s="2" t="n">
-        <v>45474</v>
-      </c>
-      <c r="D45" t="n">
-        <v>0</v>
+        <v>37</v>
+      </c>
+      <c r="C45" t="n">
+        <v>24</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>45487</v>
+        <v>45501.99999999999</v>
       </c>
       <c r="B46" t="n">
-        <v>78</v>
-      </c>
-      <c r="C46" s="2" t="n">
-        <v>45481</v>
-      </c>
-      <c r="D46" t="n">
-        <v>0</v>
+        <v>15</v>
+      </c>
+      <c r="C46" t="n">
+        <v>96</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>45494</v>
+        <v>45508.99999999999</v>
       </c>
       <c r="B47" t="n">
-        <v>37</v>
-      </c>
-      <c r="C47" s="2" t="n">
-        <v>45488</v>
-      </c>
-      <c r="D47" t="n">
-        <v>0</v>
+        <v>16</v>
+      </c>
+      <c r="C47" t="n">
+        <v>564</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>45501</v>
+        <v>45515.99999999999</v>
       </c>
       <c r="B48" t="n">
-        <v>15</v>
-      </c>
-      <c r="C48" s="2" t="n">
-        <v>45495</v>
-      </c>
-      <c r="D48" t="n">
+        <v>18</v>
+      </c>
+      <c r="C48" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>45508</v>
+        <v>45522.99999999999</v>
       </c>
       <c r="B49" t="n">
-        <v>16</v>
-      </c>
-      <c r="C49" s="2" t="n">
-        <v>45502</v>
-      </c>
-      <c r="D49" t="n">
+        <v>19</v>
+      </c>
+      <c r="C49" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>45515</v>
+        <v>45529.99999999999</v>
       </c>
       <c r="B50" t="n">
-        <v>18</v>
-      </c>
-      <c r="C50" s="2" t="n">
-        <v>45509</v>
-      </c>
-      <c r="D50" t="n">
+        <v>239</v>
+      </c>
+      <c r="C50" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>45522</v>
+        <v>45536.99999999999</v>
       </c>
       <c r="B51" t="n">
-        <v>19</v>
-      </c>
-      <c r="C51" s="2" t="n">
-        <v>45516</v>
-      </c>
-      <c r="D51" t="n">
-        <v>0</v>
+        <v>29</v>
+      </c>
+      <c r="C51" t="n">
+        <v>60</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>45529</v>
+        <v>45543.99999999999</v>
       </c>
       <c r="B52" t="n">
-        <v>239</v>
-      </c>
-      <c r="C52" s="2" t="n">
-        <v>45523</v>
-      </c>
-      <c r="D52" t="n">
-        <v>0</v>
+        <v>11</v>
+      </c>
+      <c r="C52" t="n">
+        <v>168</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>45536</v>
+        <v>45550.99999999999</v>
       </c>
       <c r="B53" t="n">
-        <v>29</v>
-      </c>
-      <c r="C53" s="2" t="n">
-        <v>45530</v>
-      </c>
-      <c r="D53" t="n">
-        <v>0</v>
+        <v>15</v>
+      </c>
+      <c r="C53" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>45543</v>
+        <v>45557.99999999999</v>
       </c>
       <c r="B54" t="n">
-        <v>11</v>
-      </c>
-      <c r="C54" s="2" t="n">
-        <v>45537</v>
-      </c>
-      <c r="D54" t="n">
-        <v>0</v>
+        <v>8</v>
+      </c>
+      <c r="C54" t="n">
+        <v>108</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>45550</v>
+        <v>45564.99999999999</v>
       </c>
       <c r="B55" t="n">
-        <v>15</v>
-      </c>
-      <c r="C55" s="2" t="n">
-        <v>45544</v>
-      </c>
-      <c r="D55" t="n">
+        <v>20</v>
+      </c>
+      <c r="C55" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>45557</v>
+        <v>45571.99999999999</v>
       </c>
       <c r="B56" t="n">
-        <v>8</v>
-      </c>
-      <c r="C56" s="2" t="n">
-        <v>45551</v>
-      </c>
-      <c r="D56" t="n">
+        <v>26</v>
+      </c>
+      <c r="C56" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>45564</v>
+        <v>45578.99999999999</v>
       </c>
       <c r="B57" t="n">
-        <v>20</v>
-      </c>
-      <c r="C57" s="2" t="n">
-        <v>45558</v>
-      </c>
-      <c r="D57" t="n">
-        <v>0</v>
+        <v>9</v>
+      </c>
+      <c r="C57" t="n">
+        <v>108</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>45571</v>
+        <v>45585.99999999999</v>
       </c>
       <c r="B58" t="n">
-        <v>26</v>
-      </c>
-      <c r="C58" s="2" t="n">
-        <v>45565</v>
-      </c>
-      <c r="D58" t="n">
-        <v>0</v>
+        <v>11</v>
+      </c>
+      <c r="C58" t="n">
+        <v>372</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>45578</v>
+        <v>45592.99999999999</v>
       </c>
       <c r="B59" t="n">
-        <v>9</v>
-      </c>
-      <c r="C59" s="2" t="n">
-        <v>45572</v>
-      </c>
-      <c r="D59" t="n">
+        <v>11</v>
+      </c>
+      <c r="C59" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>45585</v>
+        <v>45599.99999999999</v>
       </c>
       <c r="B60" t="n">
-        <v>11</v>
-      </c>
-      <c r="C60" s="2" t="n">
-        <v>45579</v>
-      </c>
-      <c r="D60" t="n">
-        <v>0</v>
+        <v>13</v>
+      </c>
+      <c r="C60" t="n">
+        <v>84</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
-        <v>45592</v>
+        <v>45606.99999999999</v>
       </c>
       <c r="B61" t="n">
-        <v>11</v>
-      </c>
-      <c r="C61" s="2" t="n">
-        <v>45586</v>
-      </c>
-      <c r="D61" t="n">
+        <v>14</v>
+      </c>
+      <c r="C61" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
-        <v>45599</v>
+        <v>45613.99999999999</v>
       </c>
       <c r="B62" t="n">
-        <v>13</v>
-      </c>
-      <c r="C62" s="2" t="n">
-        <v>45593</v>
-      </c>
-      <c r="D62" t="n">
+        <v>33</v>
+      </c>
+      <c r="C62" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
-        <v>45606</v>
+        <v>45620.99999999999</v>
       </c>
       <c r="B63" t="n">
-        <v>14</v>
-      </c>
-      <c r="C63" s="2" t="n">
-        <v>45600</v>
-      </c>
-      <c r="D63" t="n">
+        <v>42</v>
+      </c>
+      <c r="C63" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
-        <v>45613</v>
+        <v>45627.99999999999</v>
       </c>
       <c r="B64" t="n">
-        <v>33</v>
-      </c>
-      <c r="C64" s="2" t="n">
-        <v>45607</v>
-      </c>
-      <c r="D64" t="n">
+        <v>46</v>
+      </c>
+      <c r="C64" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
-        <v>45620</v>
+        <v>45634.99999999999</v>
       </c>
       <c r="B65" t="n">
-        <v>42</v>
-      </c>
-      <c r="C65" s="2" t="n">
-        <v>45614</v>
-      </c>
-      <c r="D65" t="n">
+        <v>30</v>
+      </c>
+      <c r="C65" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
-        <v>45627</v>
+        <v>45641.99999999999</v>
       </c>
       <c r="B66" t="n">
-        <v>46</v>
-      </c>
-      <c r="C66" s="2" t="n">
-        <v>45621</v>
-      </c>
-      <c r="D66" t="n">
+        <v>35</v>
+      </c>
+      <c r="C66" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
-        <v>45634</v>
+        <v>45648.99999999999</v>
       </c>
       <c r="B67" t="n">
-        <v>30</v>
-      </c>
-      <c r="C67" s="2" t="n">
-        <v>45628</v>
-      </c>
-      <c r="D67" t="n">
+        <v>19</v>
+      </c>
+      <c r="C67" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
-        <v>45641</v>
+        <v>45655.99999999999</v>
       </c>
       <c r="B68" t="n">
-        <v>35</v>
-      </c>
-      <c r="C68" s="2" t="n">
-        <v>45635</v>
-      </c>
-      <c r="D68" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="2" t="n">
-        <v>45648</v>
-      </c>
-      <c r="B69" t="n">
-        <v>19</v>
-      </c>
-      <c r="C69" s="2" t="n">
-        <v>45642</v>
-      </c>
-      <c r="D69" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="2" t="n">
-        <v>45655</v>
-      </c>
-      <c r="B70" t="n">
         <v>29</v>
       </c>
-      <c r="C70" s="2" t="n">
-        <v>45649</v>
-      </c>
-      <c r="D70" t="n">
+      <c r="C68" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1439,7 +1205,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:C35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1466,10 +1232,10 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45292</v>
+        <v>45207.99999999999</v>
       </c>
       <c r="B2" t="n">
-        <v>270</v>
+        <v>36</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -1477,243 +1243,364 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45299</v>
+        <v>45214.99999999999</v>
       </c>
       <c r="B3" t="n">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="C3" t="n">
-        <v>-93.33333333333333</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45306</v>
+        <v>45221.99999999999</v>
       </c>
       <c r="B4" t="n">
-        <v>162</v>
+        <v>54</v>
       </c>
       <c r="C4" t="n">
-        <v>800</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45320</v>
+        <v>45228.99999999999</v>
       </c>
       <c r="B5" t="n">
-        <v>36</v>
+        <v>186</v>
       </c>
       <c r="C5" t="n">
-        <v>-77.77777777777779</v>
+        <v>244.4444444444445</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45327</v>
+        <v>45235.99999999999</v>
       </c>
       <c r="B6" t="n">
-        <v>342</v>
+        <v>96</v>
       </c>
       <c r="C6" t="n">
-        <v>850</v>
+        <v>-48.38709677419355</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45341</v>
+        <v>45242.99999999999</v>
       </c>
       <c r="B7" t="n">
-        <v>180</v>
+        <v>30</v>
       </c>
       <c r="C7" t="n">
-        <v>-47.36842105263158</v>
+        <v>-68.75</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45355</v>
+        <v>45249.99999999999</v>
       </c>
       <c r="B8" t="n">
-        <v>228</v>
+        <v>210</v>
       </c>
       <c r="C8" t="n">
-        <v>26.66666666666666</v>
+        <v>600</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45369</v>
+        <v>45256.99999999999</v>
       </c>
       <c r="B9" t="n">
-        <v>126</v>
+        <v>42</v>
       </c>
       <c r="C9" t="n">
-        <v>-44.73684210526315</v>
+        <v>-80</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45376</v>
+        <v>45263.99999999999</v>
       </c>
       <c r="B10" t="n">
-        <v>510</v>
+        <v>198</v>
       </c>
       <c r="C10" t="n">
-        <v>304.7619047619048</v>
+        <v>371.4285714285714</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45425</v>
+        <v>45270.99999999999</v>
       </c>
       <c r="B11" t="n">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="C11" t="n">
-        <v>-97.64705882352941</v>
+        <v>-72.72727272727273</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45439</v>
+        <v>45277.99999999999</v>
       </c>
       <c r="B12" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>-88.88888888888889</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45460</v>
+        <v>45298.99999999999</v>
       </c>
       <c r="B13" t="n">
-        <v>60</v>
+        <v>270</v>
       </c>
       <c r="C13" t="n">
-        <v>400</v>
+        <v>4400</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45481</v>
+        <v>45305.99999999999</v>
       </c>
       <c r="B14" t="n">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C14" t="n">
-        <v>-60</v>
+        <v>-93.33333333333333</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45488</v>
+        <v>45312.99999999999</v>
       </c>
       <c r="B15" t="n">
-        <v>24</v>
+        <v>162</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>800</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45495</v>
+        <v>45326.99999999999</v>
       </c>
       <c r="B16" t="n">
-        <v>96</v>
+        <v>36</v>
       </c>
       <c r="C16" t="n">
-        <v>300</v>
+        <v>-77.77777777777779</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45502</v>
+        <v>45333.99999999999</v>
       </c>
       <c r="B17" t="n">
-        <v>564</v>
+        <v>342</v>
       </c>
       <c r="C17" t="n">
-        <v>487.5</v>
+        <v>850</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45530</v>
+        <v>45347.99999999999</v>
       </c>
       <c r="B18" t="n">
-        <v>60</v>
+        <v>180</v>
       </c>
       <c r="C18" t="n">
-        <v>-89.36170212765957</v>
+        <v>-47.36842105263158</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45537</v>
+        <v>45361.99999999999</v>
       </c>
       <c r="B19" t="n">
-        <v>168</v>
+        <v>228</v>
       </c>
       <c r="C19" t="n">
-        <v>180</v>
+        <v>26.66666666666666</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45544</v>
+        <v>45375.99999999999</v>
       </c>
       <c r="B20" t="n">
-        <v>12</v>
+        <v>126</v>
       </c>
       <c r="C20" t="n">
-        <v>-92.85714285714286</v>
+        <v>-44.73684210526315</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45551</v>
+        <v>45382.99999999999</v>
       </c>
       <c r="B21" t="n">
-        <v>108</v>
+        <v>510</v>
       </c>
       <c r="C21" t="n">
-        <v>800</v>
+        <v>304.7619047619048</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45572</v>
+        <v>45431.99999999999</v>
       </c>
       <c r="B22" t="n">
-        <v>108</v>
+        <v>12</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>-97.64705882352941</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45579</v>
+        <v>45445.99999999999</v>
       </c>
       <c r="B23" t="n">
-        <v>372</v>
+        <v>12</v>
       </c>
       <c r="C23" t="n">
-        <v>244.4444444444445</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45593</v>
+        <v>45466.99999999999</v>
       </c>
       <c r="B24" t="n">
+        <v>60</v>
+      </c>
+      <c r="C24" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>45487.99999999999</v>
+      </c>
+      <c r="B25" t="n">
+        <v>24</v>
+      </c>
+      <c r="C25" t="n">
+        <v>-60</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>45494.99999999999</v>
+      </c>
+      <c r="B26" t="n">
+        <v>24</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>45501.99999999999</v>
+      </c>
+      <c r="B27" t="n">
+        <v>96</v>
+      </c>
+      <c r="C27" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>45508.99999999999</v>
+      </c>
+      <c r="B28" t="n">
+        <v>564</v>
+      </c>
+      <c r="C28" t="n">
+        <v>487.5</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>45536.99999999999</v>
+      </c>
+      <c r="B29" t="n">
+        <v>60</v>
+      </c>
+      <c r="C29" t="n">
+        <v>-89.36170212765957</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>45543.99999999999</v>
+      </c>
+      <c r="B30" t="n">
+        <v>168</v>
+      </c>
+      <c r="C30" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>45550.99999999999</v>
+      </c>
+      <c r="B31" t="n">
+        <v>12</v>
+      </c>
+      <c r="C31" t="n">
+        <v>-92.85714285714286</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>45557.99999999999</v>
+      </c>
+      <c r="B32" t="n">
+        <v>108</v>
+      </c>
+      <c r="C32" t="n">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>45578.99999999999</v>
+      </c>
+      <c r="B33" t="n">
+        <v>108</v>
+      </c>
+      <c r="C33" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>45585.99999999999</v>
+      </c>
+      <c r="B34" t="n">
+        <v>372</v>
+      </c>
+      <c r="C34" t="n">
+        <v>244.4444444444445</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>45599.99999999999</v>
+      </c>
+      <c r="B35" t="n">
         <v>84</v>
       </c>
-      <c r="C24" t="n">
+      <c r="C35" t="n">
         <v>-77.41935483870968</v>
       </c>
     </row>
@@ -1760,16 +1647,16 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>3576</v>
+        <v>4542</v>
       </c>
       <c r="B2" t="n">
-        <v>155.4782608695652</v>
+        <v>133.5882352941177</v>
       </c>
       <c r="C2" t="n">
         <v>564</v>
       </c>
       <c r="D2" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -1800,7 +1687,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>142.5296442687747</v>
+        <v>174.096256684492</v>
       </c>
     </row>
   </sheetData>

--- a/po forecast comparison/B083RW9KDM_sales_po_comparison.xlsx
+++ b/po forecast comparison/B083RW9KDM_sales_po_comparison.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B68"/>
+  <dimension ref="A1:B69"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -987,6 +987,14 @@
       </c>
       <c r="B68" t="n">
         <v>29</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>45662.99999999999</v>
+      </c>
+      <c r="B69" t="n">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -23463,7 +23471,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C257"/>
+  <dimension ref="A1:C258"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24552,7 +24560,7 @@
         <v>0</v>
       </c>
       <c r="C98" t="n">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="99">
@@ -24618,7 +24626,7 @@
         <v>0</v>
       </c>
       <c r="C104" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="105">
@@ -24651,7 +24659,7 @@
         <v>0</v>
       </c>
       <c r="C107" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="108">
@@ -24662,7 +24670,7 @@
         <v>0</v>
       </c>
       <c r="C108" t="n">
-        <v>6</v>
+        <v>18</v>
       </c>
     </row>
     <row r="109">
@@ -24673,7 +24681,7 @@
         <v>0</v>
       </c>
       <c r="C109" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="110">
@@ -24684,7 +24692,7 @@
         <v>0</v>
       </c>
       <c r="C110" t="n">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="111">
@@ -24695,7 +24703,7 @@
         <v>0</v>
       </c>
       <c r="C111" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="112">
@@ -24706,7 +24714,7 @@
         <v>0</v>
       </c>
       <c r="C112" t="n">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="113">
@@ -24717,7 +24725,7 @@
         <v>0</v>
       </c>
       <c r="C113" t="n">
-        <v>6</v>
+        <v>24</v>
       </c>
     </row>
     <row r="114">
@@ -24728,7 +24736,7 @@
         <v>0</v>
       </c>
       <c r="C114" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="115">
@@ -24739,7 +24747,7 @@
         <v>0</v>
       </c>
       <c r="C115" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
     </row>
     <row r="116">
@@ -24772,7 +24780,7 @@
         <v>0</v>
       </c>
       <c r="C118" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
     </row>
     <row r="119">
@@ -24805,7 +24813,7 @@
         <v>0</v>
       </c>
       <c r="C121" t="n">
-        <v>6</v>
+        <v>36</v>
       </c>
     </row>
     <row r="122">
@@ -24816,7 +24824,7 @@
         <v>0</v>
       </c>
       <c r="C122" t="n">
-        <v>36</v>
+        <v>48</v>
       </c>
     </row>
     <row r="123">
@@ -24827,7 +24835,7 @@
         <v>0</v>
       </c>
       <c r="C123" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
     </row>
     <row r="124">
@@ -24838,7 +24846,7 @@
         <v>0</v>
       </c>
       <c r="C124" t="n">
-        <v>48</v>
+        <v>6</v>
       </c>
     </row>
     <row r="125">
@@ -24849,7 +24857,7 @@
         <v>0</v>
       </c>
       <c r="C125" t="n">
-        <v>24</v>
+        <v>36</v>
       </c>
     </row>
     <row r="126">
@@ -24860,7 +24868,7 @@
         <v>0</v>
       </c>
       <c r="C126" t="n">
-        <v>48</v>
+        <v>24</v>
       </c>
     </row>
     <row r="127">
@@ -24871,7 +24879,7 @@
         <v>0</v>
       </c>
       <c r="C127" t="n">
-        <v>36</v>
+        <v>48</v>
       </c>
     </row>
     <row r="128">
@@ -24882,7 +24890,7 @@
         <v>0</v>
       </c>
       <c r="C128" t="n">
-        <v>6</v>
+        <v>24</v>
       </c>
     </row>
     <row r="129">
@@ -25971,7 +25979,7 @@
         <v>0</v>
       </c>
       <c r="C227" t="n">
-        <v>6</v>
+        <v>48</v>
       </c>
     </row>
     <row r="228">
@@ -25982,7 +25990,7 @@
         <v>0</v>
       </c>
       <c r="C228" t="n">
-        <v>48</v>
+        <v>6</v>
       </c>
     </row>
     <row r="229">
@@ -26125,7 +26133,7 @@
         <v>0</v>
       </c>
       <c r="C241" t="n">
-        <v>180</v>
+        <v>6</v>
       </c>
     </row>
     <row r="242">
@@ -26136,7 +26144,7 @@
         <v>0</v>
       </c>
       <c r="C242" t="n">
-        <v>6</v>
+        <v>180</v>
       </c>
     </row>
     <row r="243">
@@ -26147,7 +26155,7 @@
         <v>0</v>
       </c>
       <c r="C243" t="n">
-        <v>6</v>
+        <v>180</v>
       </c>
     </row>
     <row r="244">
@@ -26158,7 +26166,7 @@
         <v>0</v>
       </c>
       <c r="C244" t="n">
-        <v>180</v>
+        <v>6</v>
       </c>
     </row>
     <row r="245">
@@ -26301,6 +26309,17 @@
         <v>29</v>
       </c>
       <c r="C257" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" s="2" t="n">
+        <v>45662.99999999999</v>
+      </c>
+      <c r="B258" t="n">
+        <v>20</v>
+      </c>
+      <c r="C258" t="n">
         <v>0</v>
       </c>
     </row>

--- a/po forecast comparison/B083RW9KDM_sales_po_comparison.xlsx
+++ b/po forecast comparison/B083RW9KDM_sales_po_comparison.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B69"/>
+  <dimension ref="A1:B70"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -995,6 +995,14 @@
       </c>
       <c r="B69" t="n">
         <v>20</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>45669.99999999999</v>
+      </c>
+      <c r="B70" t="n">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -23471,7 +23479,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C258"/>
+  <dimension ref="A1:C259"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25594,7 +25602,7 @@
         <v>0</v>
       </c>
       <c r="C192" t="n">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="193">
@@ -25605,7 +25613,7 @@
         <v>0</v>
       </c>
       <c r="C193" t="n">
-        <v>30</v>
+        <v>36</v>
       </c>
     </row>
     <row r="194">
@@ -25616,7 +25624,7 @@
         <v>0</v>
       </c>
       <c r="C194" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="195">
@@ -25627,7 +25635,7 @@
         <v>0</v>
       </c>
       <c r="C195" t="n">
-        <v>6</v>
+        <v>30</v>
       </c>
     </row>
     <row r="196">
@@ -25638,7 +25646,7 @@
         <v>0</v>
       </c>
       <c r="C196" t="n">
-        <v>36</v>
+        <v>12</v>
       </c>
     </row>
     <row r="197">
@@ -25649,7 +25657,7 @@
         <v>0</v>
       </c>
       <c r="C197" t="n">
-        <v>30</v>
+        <v>36</v>
       </c>
     </row>
     <row r="198">
@@ -25660,7 +25668,7 @@
         <v>0</v>
       </c>
       <c r="C198" t="n">
-        <v>78</v>
+        <v>30</v>
       </c>
     </row>
     <row r="199">
@@ -25671,7 +25679,7 @@
         <v>0</v>
       </c>
       <c r="C199" t="n">
-        <v>30</v>
+        <v>78</v>
       </c>
     </row>
     <row r="200">
@@ -25682,7 +25690,7 @@
         <v>0</v>
       </c>
       <c r="C200" t="n">
-        <v>66</v>
+        <v>24</v>
       </c>
     </row>
     <row r="201">
@@ -25693,7 +25701,7 @@
         <v>0</v>
       </c>
       <c r="C201" t="n">
-        <v>24</v>
+        <v>66</v>
       </c>
     </row>
     <row r="202">
@@ -25704,7 +25712,7 @@
         <v>0</v>
       </c>
       <c r="C202" t="n">
-        <v>24</v>
+        <v>66</v>
       </c>
     </row>
     <row r="203">
@@ -25715,7 +25723,7 @@
         <v>0</v>
       </c>
       <c r="C203" t="n">
-        <v>78</v>
+        <v>24</v>
       </c>
     </row>
     <row r="204">
@@ -25737,7 +25745,7 @@
         <v>0</v>
       </c>
       <c r="C205" t="n">
-        <v>66</v>
+        <v>78</v>
       </c>
     </row>
     <row r="206">
@@ -25814,7 +25822,7 @@
         <v>0</v>
       </c>
       <c r="C212" t="n">
-        <v>18</v>
+        <v>6</v>
       </c>
     </row>
     <row r="213">
@@ -25847,7 +25855,7 @@
         <v>0</v>
       </c>
       <c r="C215" t="n">
-        <v>6</v>
+        <v>18</v>
       </c>
     </row>
     <row r="216">
@@ -25957,7 +25965,7 @@
         <v>0</v>
       </c>
       <c r="C225" t="n">
-        <v>48</v>
+        <v>6</v>
       </c>
     </row>
     <row r="226">
@@ -25968,7 +25976,7 @@
         <v>0</v>
       </c>
       <c r="C226" t="n">
-        <v>6</v>
+        <v>48</v>
       </c>
     </row>
     <row r="227">
@@ -25979,7 +25987,7 @@
         <v>0</v>
       </c>
       <c r="C227" t="n">
-        <v>48</v>
+        <v>6</v>
       </c>
     </row>
     <row r="228">
@@ -25990,7 +25998,7 @@
         <v>0</v>
       </c>
       <c r="C228" t="n">
-        <v>6</v>
+        <v>48</v>
       </c>
     </row>
     <row r="229">
@@ -26155,7 +26163,7 @@
         <v>0</v>
       </c>
       <c r="C243" t="n">
-        <v>180</v>
+        <v>6</v>
       </c>
     </row>
     <row r="244">
@@ -26166,7 +26174,7 @@
         <v>0</v>
       </c>
       <c r="C244" t="n">
-        <v>6</v>
+        <v>180</v>
       </c>
     </row>
     <row r="245">
@@ -26320,6 +26328,17 @@
         <v>20</v>
       </c>
       <c r="C258" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" s="2" t="n">
+        <v>45669.99999999999</v>
+      </c>
+      <c r="B259" t="n">
+        <v>30</v>
+      </c>
+      <c r="C259" t="n">
         <v>0</v>
       </c>
     </row>

--- a/po forecast comparison/B083RW9KDM_sales_po_comparison.xlsx
+++ b/po forecast comparison/B083RW9KDM_sales_po_comparison.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B70"/>
+  <dimension ref="A1:B71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1003,6 +1003,14 @@
       </c>
       <c r="B70" t="n">
         <v>30</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>45676.99999999999</v>
+      </c>
+      <c r="B71" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -23479,7 +23487,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C259"/>
+  <dimension ref="A1:C260"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24249,7 +24257,7 @@
         <v>0</v>
       </c>
       <c r="C69" t="n">
-        <v>18</v>
+        <v>6</v>
       </c>
     </row>
     <row r="70">
@@ -24271,7 +24279,7 @@
         <v>0</v>
       </c>
       <c r="C71" t="n">
-        <v>6</v>
+        <v>18</v>
       </c>
     </row>
     <row r="72">
@@ -24282,7 +24290,7 @@
         <v>0</v>
       </c>
       <c r="C72" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="73">
@@ -24293,7 +24301,7 @@
         <v>0</v>
       </c>
       <c r="C73" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="74">
@@ -24315,7 +24323,7 @@
         <v>0</v>
       </c>
       <c r="C75" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="76">
@@ -24326,7 +24334,7 @@
         <v>0</v>
       </c>
       <c r="C76" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="77">
@@ -24348,7 +24356,7 @@
         <v>0</v>
       </c>
       <c r="C78" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="79">
@@ -24359,7 +24367,7 @@
         <v>0</v>
       </c>
       <c r="C79" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="80">
@@ -24480,7 +24488,7 @@
         <v>0</v>
       </c>
       <c r="C90" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="91">
@@ -24524,7 +24532,7 @@
         <v>0</v>
       </c>
       <c r="C94" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="95">
@@ -24546,7 +24554,7 @@
         <v>0</v>
       </c>
       <c r="C96" t="n">
-        <v>42</v>
+        <v>24</v>
       </c>
     </row>
     <row r="97">
@@ -24557,7 +24565,7 @@
         <v>0</v>
       </c>
       <c r="C97" t="n">
-        <v>24</v>
+        <v>42</v>
       </c>
     </row>
     <row r="98">
@@ -24568,7 +24576,7 @@
         <v>0</v>
       </c>
       <c r="C98" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="99">
@@ -24634,7 +24642,7 @@
         <v>0</v>
       </c>
       <c r="C104" t="n">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="105">
@@ -24667,7 +24675,7 @@
         <v>0</v>
       </c>
       <c r="C107" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="108">
@@ -24678,7 +24686,7 @@
         <v>0</v>
       </c>
       <c r="C108" t="n">
-        <v>18</v>
+        <v>6</v>
       </c>
     </row>
     <row r="109">
@@ -24689,7 +24697,7 @@
         <v>0</v>
       </c>
       <c r="C109" t="n">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="110">
@@ -24700,7 +24708,7 @@
         <v>0</v>
       </c>
       <c r="C110" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="111">
@@ -24711,7 +24719,7 @@
         <v>0</v>
       </c>
       <c r="C111" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="112">
@@ -24733,7 +24741,7 @@
         <v>0</v>
       </c>
       <c r="C113" t="n">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="114">
@@ -24744,7 +24752,7 @@
         <v>0</v>
       </c>
       <c r="C114" t="n">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="115">
@@ -24821,7 +24829,7 @@
         <v>0</v>
       </c>
       <c r="C121" t="n">
-        <v>36</v>
+        <v>48</v>
       </c>
     </row>
     <row r="122">
@@ -24843,7 +24851,7 @@
         <v>0</v>
       </c>
       <c r="C123" t="n">
-        <v>6</v>
+        <v>24</v>
       </c>
     </row>
     <row r="124">
@@ -24854,7 +24862,7 @@
         <v>0</v>
       </c>
       <c r="C124" t="n">
-        <v>6</v>
+        <v>36</v>
       </c>
     </row>
     <row r="125">
@@ -24865,7 +24873,7 @@
         <v>0</v>
       </c>
       <c r="C125" t="n">
-        <v>36</v>
+        <v>24</v>
       </c>
     </row>
     <row r="126">
@@ -24876,7 +24884,7 @@
         <v>0</v>
       </c>
       <c r="C126" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
     </row>
     <row r="127">
@@ -24887,7 +24895,7 @@
         <v>0</v>
       </c>
       <c r="C127" t="n">
-        <v>48</v>
+        <v>36</v>
       </c>
     </row>
     <row r="128">
@@ -24898,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="C128" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
     </row>
     <row r="129">
@@ -24931,7 +24939,7 @@
         <v>0</v>
       </c>
       <c r="C131" t="n">
-        <v>30</v>
+        <v>54</v>
       </c>
     </row>
     <row r="132">
@@ -24942,7 +24950,7 @@
         <v>0</v>
       </c>
       <c r="C132" t="n">
-        <v>6</v>
+        <v>36</v>
       </c>
     </row>
     <row r="133">
@@ -24953,7 +24961,7 @@
         <v>0</v>
       </c>
       <c r="C133" t="n">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="134">
@@ -24964,7 +24972,7 @@
         <v>0</v>
       </c>
       <c r="C134" t="n">
-        <v>54</v>
+        <v>6</v>
       </c>
     </row>
     <row r="135">
@@ -25008,7 +25016,7 @@
         <v>0</v>
       </c>
       <c r="C138" t="n">
-        <v>84</v>
+        <v>6</v>
       </c>
     </row>
     <row r="139">
@@ -25019,7 +25027,7 @@
         <v>0</v>
       </c>
       <c r="C139" t="n">
-        <v>6</v>
+        <v>48</v>
       </c>
     </row>
     <row r="140">
@@ -25030,7 +25038,7 @@
         <v>0</v>
       </c>
       <c r="C140" t="n">
-        <v>54</v>
+        <v>72</v>
       </c>
     </row>
     <row r="141">
@@ -25041,7 +25049,7 @@
         <v>0</v>
       </c>
       <c r="C141" t="n">
-        <v>24</v>
+        <v>60</v>
       </c>
     </row>
     <row r="142">
@@ -25063,7 +25071,7 @@
         <v>0</v>
       </c>
       <c r="C143" t="n">
-        <v>72</v>
+        <v>54</v>
       </c>
     </row>
     <row r="144">
@@ -25074,7 +25082,7 @@
         <v>0</v>
       </c>
       <c r="C144" t="n">
-        <v>48</v>
+        <v>6</v>
       </c>
     </row>
     <row r="145">
@@ -25085,7 +25093,7 @@
         <v>0</v>
       </c>
       <c r="C145" t="n">
-        <v>60</v>
+        <v>84</v>
       </c>
     </row>
     <row r="146">
@@ -25096,7 +25104,7 @@
         <v>0</v>
       </c>
       <c r="C146" t="n">
-        <v>6</v>
+        <v>24</v>
       </c>
     </row>
     <row r="147">
@@ -25492,7 +25500,7 @@
         <v>0</v>
       </c>
       <c r="C182" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="183">
@@ -25503,7 +25511,7 @@
         <v>0</v>
       </c>
       <c r="C183" t="n">
-        <v>6</v>
+        <v>18</v>
       </c>
     </row>
     <row r="184">
@@ -25514,7 +25522,7 @@
         <v>0</v>
       </c>
       <c r="C184" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="185">
@@ -25536,7 +25544,7 @@
         <v>0</v>
       </c>
       <c r="C186" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="187">
@@ -25547,7 +25555,7 @@
         <v>0</v>
       </c>
       <c r="C187" t="n">
-        <v>18</v>
+        <v>6</v>
       </c>
     </row>
     <row r="188">
@@ -25558,7 +25566,7 @@
         <v>0</v>
       </c>
       <c r="C188" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="189">
@@ -25591,7 +25599,7 @@
         <v>0</v>
       </c>
       <c r="C191" t="n">
-        <v>6</v>
+        <v>36</v>
       </c>
     </row>
     <row r="192">
@@ -25613,7 +25621,7 @@
         <v>0</v>
       </c>
       <c r="C193" t="n">
-        <v>36</v>
+        <v>6</v>
       </c>
     </row>
     <row r="194">
@@ -25822,7 +25830,7 @@
         <v>0</v>
       </c>
       <c r="C212" t="n">
-        <v>6</v>
+        <v>18</v>
       </c>
     </row>
     <row r="213">
@@ -25833,7 +25841,7 @@
         <v>0</v>
       </c>
       <c r="C213" t="n">
-        <v>18</v>
+        <v>6</v>
       </c>
     </row>
     <row r="214">
@@ -25965,7 +25973,7 @@
         <v>0</v>
       </c>
       <c r="C225" t="n">
-        <v>6</v>
+        <v>48</v>
       </c>
     </row>
     <row r="226">
@@ -25976,7 +25984,7 @@
         <v>0</v>
       </c>
       <c r="C226" t="n">
-        <v>48</v>
+        <v>6</v>
       </c>
     </row>
     <row r="227">
@@ -26339,6 +26347,17 @@
         <v>30</v>
       </c>
       <c r="C259" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" s="2" t="n">
+        <v>45676.99999999999</v>
+      </c>
+      <c r="B260" t="n">
+        <v>0</v>
+      </c>
+      <c r="C260" t="n">
         <v>0</v>
       </c>
     </row>

--- a/po forecast comparison/B083RW9KDM_sales_po_comparison.xlsx
+++ b/po forecast comparison/B083RW9KDM_sales_po_comparison.xlsx
@@ -1010,7 +1010,7 @@
         <v>45676.99999999999</v>
       </c>
       <c r="B71" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -26355,7 +26355,7 @@
         <v>45676.99999999999</v>
       </c>
       <c r="B260" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="C260" t="n">
         <v>0</v>
